--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Plan B.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Plan B.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
     <t>firstName</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Hartmann</t>
   </si>
   <si>
-    <t>Hesse</t>
+    <t>Heße</t>
   </si>
   <si>
     <t>Annette</t>
@@ -109,7 +109,19 @@
     <t>Simon</t>
   </si>
   <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Stracke</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Bernd</t>
+  </si>
+  <si>
+    <t>Rosen</t>
   </si>
 </sst>
 </file>
@@ -197,11 +209,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -255,26 +267,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" s="3">
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="3">
@@ -291,26 +303,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="4">
@@ -342,7 +354,7 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
@@ -378,7 +390,7 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
@@ -399,26 +411,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I6" s="3">
         <v>0.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="7">
@@ -435,26 +447,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I7" s="3">
         <v>0.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,26 +483,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="9">
@@ -507,26 +519,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,26 +555,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="11">
@@ -579,26 +591,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="12">
@@ -615,26 +627,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -651,26 +663,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="14">
@@ -687,26 +699,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="15">
@@ -723,26 +735,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I15" s="3">
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
@@ -759,26 +771,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" s="3">
         <v>0.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="17">
@@ -795,26 +807,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I17" s="3">
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="18">
@@ -831,26 +843,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I18" s="3">
         <v>0.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="19">
@@ -867,26 +879,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I19" s="3">
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="20">
@@ -903,26 +915,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I20" s="3">
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="21">
@@ -939,26 +951,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I21" s="3">
         <v>0.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="22">
@@ -975,26 +987,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,26 +1023,26 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="24">
@@ -1047,26 +1059,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="25">
@@ -1083,26 +1095,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" s="3">
         <v>0.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,26 +1131,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F26" s="8">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" s="8">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="27">
@@ -1155,26 +1167,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="8">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H27" s="8">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I27" s="8">
         <v>0.0</v>
       </c>
       <c r="J27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="28">
@@ -1191,26 +1203,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="8">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F28" s="8">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I28" s="8">
         <v>0.0</v>
       </c>
       <c r="J28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="6">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,26 +1239,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="8">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F29" s="8">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H29" s="8">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I29" s="8">
         <v>0.0</v>
       </c>
       <c r="J29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="6">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="30">
@@ -1263,26 +1275,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="31">
@@ -1299,26 +1311,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I31" s="3">
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="6">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,26 +1347,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I32" s="3">
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="6">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="33">
@@ -1371,26 +1383,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33" s="3">
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="34">
@@ -1422,7 +1434,7 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="6">
@@ -1458,7 +1470,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="6">
@@ -1494,7 +1506,7 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="6">
@@ -1530,7 +1542,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="6">
@@ -1551,26 +1563,26 @@
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F38" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I38" s="3">
         <v>0.0</v>
       </c>
       <c r="J38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="6">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="39">
@@ -1587,26 +1599,26 @@
         <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I39" s="3">
         <v>0.0</v>
       </c>
       <c r="J39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="40">
@@ -1623,26 +1635,26 @@
         <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H40" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I40" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="41">
@@ -1659,26 +1671,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H41" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I41" s="3">
         <v>0.0</v>
       </c>
       <c r="J41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="42">
@@ -1695,26 +1707,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I42" s="3">
         <v>0.0</v>
       </c>
       <c r="J42" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="43">
@@ -1731,26 +1743,26 @@
         <v>12</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="44">
@@ -1767,26 +1779,26 @@
         <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F44" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="3">
         <v>0.0</v>
       </c>
       <c r="J44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="45">
@@ -1803,154 +1815,170 @@
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I45" s="3">
         <v>0.0</v>
       </c>
       <c r="J45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="6">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C46" s="3">
         <v>1.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F46" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H46" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I46" s="3">
         <v>0.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="3">
         <v>2.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H47" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I47" s="3">
         <v>0.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C48" s="3">
         <v>1.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F48" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H48" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I48" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C49" s="3">
         <v>2.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E49" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F49" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H49" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I49" s="3">
         <v>0.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="50">
@@ -1958,7 +1986,7 @@
         <v>3.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E50" s="6">
         <v>0.0</v>
@@ -1987,7 +2015,7 @@
         <v>4.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E51" s="6">
         <v>0.0</v>
@@ -2016,7 +2044,7 @@
         <v>3.0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E52" s="6">
         <v>0.0</v>
@@ -2045,7 +2073,7 @@
         <v>4.0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E53" s="6">
         <v>0.0</v>
